--- a/StructureDefinition-ext-R5-ChargeItem.unitPriceComponent.xlsx
+++ b/StructureDefinition-ext-R5-ChargeItem.unitPriceComponent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `ChargeItem.unitPriceComponent` 0..1 `MonetaryComponent`
 Following are the generation technical comments:
-Element `ChargeItem.unitPriceComponent` is mapped to FHIR R4 structure `ChargeItem`, but has no target element specified.</t>
+Element `ChargeItem.unitPriceComponent` is will have a context of ChargeItem based on following the parent source element upwards and mapping to `ChargeItem`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -140,7 +140,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:ChargeItem</t>
   </si>
   <si>
     <t>ID</t>

--- a/StructureDefinition-ext-R5-ChargeItem.unitPriceComponent.xlsx
+++ b/StructureDefinition-ext-R5-ChargeItem.unitPriceComponent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `ChargeItem.unitPriceComponent` 0..1 `MonetaryComponent`
 Following are the generation technical comments:
-Element `ChargeItem.unitPriceComponent` is will have a context of ChargeItem based on following the parent source element upwards and mapping to `ChargeItem`.</t>
+Element `ChargeItem.unitPriceComponent` has a context of ChargeItem based on following the parent source element upwards and mapping to `ChargeItem`.</t>
   </si>
   <si>
     <t>Copyright</t>

--- a/StructureDefinition-ext-R5-ChargeItem.unitPriceComponent.xlsx
+++ b/StructureDefinition-ext-R5-ChargeItem.unitPriceComponent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/StructureDefinition-ext-R5-ChargeItem.unitPriceComponent.xlsx
+++ b/StructureDefinition-ext-R5-ChargeItem.unitPriceComponent.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="172">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -448,6 +448,15 @@
   <si>
     <t xml:space="preserve">code
 </t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The purpose for which an extended contact detail should be used.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-price-component-type-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.extension:code</t>
@@ -891,8 +900,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="71.75390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2333,13 +2342,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2377,13 +2386,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2408,14 +2417,14 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2484,7 +2493,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2587,7 +2596,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -2692,7 +2701,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -2735,7 +2744,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2797,7 +2806,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>122</v>
@@ -2823,13 +2832,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2900,13 +2909,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -2931,14 +2940,14 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3007,7 +3016,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>105</v>
@@ -3110,7 +3119,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>107</v>
@@ -3215,7 +3224,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>113</v>
@@ -3258,7 +3267,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3320,7 +3329,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>122</v>
@@ -3346,13 +3355,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3423,13 +3432,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3454,14 +3463,14 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3530,7 +3539,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>105</v>
@@ -3633,7 +3642,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>107</v>
@@ -3738,7 +3747,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>113</v>
@@ -3781,7 +3790,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3843,7 +3852,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>122</v>
@@ -3869,13 +3878,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4077,7 +4086,7 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>123</v>
